--- a/labs/lab3/lab3-acceptane-test.xlsx
+++ b/labs/lab3/lab3-acceptane-test.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <si>
     <r>
       <t xml:space="preserve">Acceptance Testing for Use Case: </t>
@@ -189,34 +189,6 @@
   </si>
   <si>
     <r>
-      <t>A system throws out a warning 
-message "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>User Name/Password incorrect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>".
-A system cleans all fields.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">The password is </t>
     </r>
     <r>
@@ -239,33 +211,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> correct.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Checking mandatory fields.
-The password is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>empty</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
     </r>
   </si>
   <si>
@@ -640,33 +585,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> button.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A system throws out a warning 
-message "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Please, insert a password!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>".
-A system cleans all fields of "LogIN" window.</t>
     </r>
   </si>
   <si>
@@ -1063,9 +981,6 @@
     <t>software</t>
   </si>
   <si>
-    <t>electric</t>
-  </si>
-  <si>
     <t>mathmatics</t>
   </si>
   <si>
@@ -1087,9 +1002,6 @@
     <t>RequestSuccessful</t>
   </si>
   <si>
-    <t>RequstFieldsMissing</t>
-  </si>
-  <si>
     <t>RequestTimeOut</t>
   </si>
   <si>
@@ -1097,52 +1009,8 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Open "sendRequest" window.
-Type a user ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">123
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Type a password:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wrong</t>
+      <t>Open "sendRequest" window.
+Type a Name: samir</t>
     </r>
     <r>
       <rPr>
@@ -1164,7 +1032,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Click </t>
+      <t>Type a Department: software</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Type a Topic : algorithms
+Type a course : 123
+Type a place : braude
+Type a time : 19:00
+Cli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ck </t>
     </r>
     <r>
       <rPr>
@@ -1185,240 +1079,132 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> button.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Open "sendRequest" window.
-Type a user ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">456
+      <t xml:space="preserve"> button.
 </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Don't fill a password:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
+  </si>
+  <si>
+    <t>User is logged in</t>
+  </si>
+  <si>
+    <t>The request is correct and sent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open "sendRequest" window.
+Type a Name: badera
+Type a Department: -
+Type a Topic : physics
+Type a course : 456
+Type a place : technion
+Type a time : 18:00
+Click "OK" button.
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"OK"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Open "sendRequest" window.
-Type a user ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">456
+  </si>
+  <si>
+    <t>user is logged in</t>
+  </si>
+  <si>
+    <t>Missing fields and request is not sent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open "sendRequest" window.
+Type a Name: samir
+Type a Department: software
+Type a Topic : algorithms
+Type a course : 123
+Type a place : braude
+Type a time : 19:00
+3 minutes timedout
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Type a password:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">345
+  </si>
+  <si>
+    <r>
+      <t>A system throws out a warning 
+message "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Time is up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>".
+A system goes back to filling a new form.</t>
+    </r>
+  </si>
+  <si>
+    <t>User request timed out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open "sendRequest" window.
+Type a Name: 
+Type a Department:
+Type a Topic :
+Type a course :
+Type a place :
+Type a time :
+Click "Cancel" button.
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Open "sendRequest" window.
-Type a Name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+  </si>
+  <si>
+    <t>Form is filled correctly
+System accepts form
+Request is sent
+Send notification to lecturer</t>
+  </si>
+  <si>
+    <t>RequstMissingRequiredField_Department</t>
+  </si>
+  <si>
+    <t>RequstMissingRequiredField_Name</t>
+  </si>
+  <si>
+    <t>RequstMissingOptionalField_Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open "sendRequest" window.
+Type a Name: samir
+Type a Department: software 
+Type a Topic : algorithms
+Type a course : 123
+Type a place : 
+Type a time : 19:00
+Click "OK" button.
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Type a Department:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"OK"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button.</t>
-    </r>
+  </si>
+  <si>
+    <t>Missing optional fields and request is sent</t>
+  </si>
+  <si>
+    <t>The user cancels the request</t>
+  </si>
+  <si>
+    <t>Cleaning all fields of "sendRequst" window.
+Return to main menu</t>
+  </si>
+  <si>
+    <t>Required fields are missing
+System throws an error "Missing name field"
+Request is not sent
+return to filling a form</t>
+  </si>
+  <si>
+    <t>Required fields are missing
+System throws an error "Missing department field"
+Request is not sent
+return to filling a form</t>
   </si>
 </sst>
 </file>
@@ -1905,11 +1691,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1940,6 +1723,90 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1952,107 +1819,32 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2401,181 +2193,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>123</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>456</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>789</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
     </row>
     <row r="10" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="60" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="73.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="59.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="57.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="44"/>
+      <c r="B15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="73.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="20" t="s">
+      <c r="C15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="50"/>
+    </row>
+    <row r="16" spans="1:5" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C16" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="51"/>
+    </row>
+    <row r="17" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="59.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="57.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-    </row>
-    <row r="16" spans="1:5" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-    </row>
-    <row r="17" spans="1:5" ht="57" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="D17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="E17" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2594,198 +2386,230 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.5" customWidth="1"/>
-    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="58" customWidth="1"/>
     <col min="3" max="3" width="44.25" customWidth="1"/>
     <col min="4" max="4" width="31.75" customWidth="1"/>
     <col min="5" max="5" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="38"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="E4" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="B5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="27">
+        <v>123</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="33">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="27">
+        <v>456</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="33">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="39">
-        <v>123</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="B7" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="32"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="171" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="135.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="45">
-        <v>0.79166666666666663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="39">
-        <v>456</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="45">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="44"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="B16" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="60" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="60" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="60" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>24</v>
+      <c r="E16" s="35" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/labs/lab3/lab3-acceptane-test.xlsx
+++ b/labs/lab3/lab3-acceptane-test.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <r>
       <t xml:space="preserve">Acceptance Testing for Use Case: </t>
@@ -1201,8 +1201,16 @@
 return to filling a form</t>
   </si>
   <si>
-    <t>Required fields are missing
-System throws an error "Missing department field"
+    <t>Precondition: User is logged in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+System accepts form
+Request is sent to department
+Send notification to lecturer</t>
+  </si>
+  <si>
+    <t>System throws an error "Missing department field"
 Request is not sent
 return to filling a form</t>
   </si>
@@ -2388,8 +2396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2398,7 +2406,7 @@
     <col min="2" max="2" width="58" customWidth="1"/>
     <col min="3" max="3" width="44.25" customWidth="1"/>
     <col min="4" max="4" width="31.75" customWidth="1"/>
-    <col min="5" max="5" width="27.375" customWidth="1"/>
+    <col min="5" max="5" width="59.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -2407,6 +2415,11 @@
       </c>
       <c r="B1" s="38"/>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
@@ -2518,7 +2531,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>58</v>
@@ -2527,7 +2540,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>68</v>
       </c>
@@ -2535,7 +2548,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>61</v>
@@ -2544,7 +2557,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>69</v>
       </c>
@@ -2561,7 +2574,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="148.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>70</v>
       </c>
@@ -2578,7 +2591,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="127.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>55</v>
       </c>
@@ -2595,7 +2608,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="135.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>56</v>
       </c>
